--- a/Participation.xlsx
+++ b/Participation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\2022-2023 school year\Computational Economics\Students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A68242-D4A5-471C-AE44-FEBF9D1F2057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F576DF-CA44-4D6C-9C84-BB4C4BC82ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{986731EC-AEFD-4699-AABE-557E6822814A}"/>
   </bookViews>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD49D77-818C-4B62-ABCF-95D7E6A9312D}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +511,11 @@
       <c r="F1" s="2">
         <v>44837</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -544,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A30" si="0">1+A3</f>
         <v>3</v>
@@ -559,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -570,8 +576,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -588,8 +597,11 @@
       <c r="F6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -603,8 +615,11 @@
       <c r="D7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -618,8 +633,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -637,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -648,8 +666,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -666,8 +687,11 @@
       <c r="E11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -687,8 +711,11 @@
       <c r="F12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -708,8 +735,11 @@
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -724,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -735,8 +765,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -753,8 +786,11 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -766,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -778,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -790,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -811,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -823,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -843,8 +879,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -856,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -868,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -880,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -900,8 +939,11 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -921,8 +963,11 @@
       <c r="F27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -937,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -949,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -966,8 +1011,11 @@
       <c r="F30">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -985,8 +1033,11 @@
       <c r="F33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -994,17 +1045,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36">
         <v>3</v>

--- a/Participation.xlsx
+++ b/Participation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\2022-2023 school year\Computational Economics\Students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F576DF-CA44-4D6C-9C84-BB4C4BC82ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98091AEB-B4A7-4369-9181-1E93BB7B4653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{986731EC-AEFD-4699-AABE-557E6822814A}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Zaytsev Aleksandr</t>
   </si>
   <si>
-    <t>Vladislav Taltos</t>
-  </si>
-  <si>
     <t>Aigul</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Maria Malkova</t>
+  </si>
+  <si>
+    <t>Vladislav Gorbachev</t>
   </si>
 </sst>
 </file>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD49D77-818C-4B62-ABCF-95D7E6A9312D}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +514,11 @@
       <c r="G1" s="2">
         <v>44844</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,12 +527,24 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -549,8 +564,11 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A30" si="0">1+A3</f>
         <v>3</v>
@@ -565,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -580,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -601,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -619,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -636,8 +654,11 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -655,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -670,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -691,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -714,8 +735,11 @@
       <c r="G12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -739,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -754,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -768,8 +792,11 @@
       <c r="G15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -790,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -802,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -814,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -826,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -847,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -859,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -883,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -895,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -907,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -919,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -942,8 +969,11 @@
       <c r="G26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -966,8 +996,11 @@
       <c r="G27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -982,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -994,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1015,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -1023,9 +1056,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -1036,18 +1069,21 @@
       <c r="G33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>32</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>33</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1055,10 +1091,13 @@
       <c r="G35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1068,6 +1107,9 @@
       </c>
       <c r="F36">
         <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Participation.xlsx
+++ b/Participation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\2022-2023 school year\Computational Economics\Students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98091AEB-B4A7-4369-9181-1E93BB7B4653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EECFBEF-7069-4A61-ADFE-7A678C316B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{986731EC-AEFD-4699-AABE-557E6822814A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>e/m</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Azyamova Kristina Konstantinovna</t>
   </si>
   <si>
-    <t>colorful</t>
-  </si>
-  <si>
     <t>Akimov Nikita</t>
   </si>
   <si>
@@ -120,16 +117,31 @@
     <t>Zaytsev Aleksandr</t>
   </si>
   <si>
-    <t>Aigul</t>
-  </si>
-  <si>
     <t>Nikolaeva Xenia</t>
   </si>
   <si>
-    <t>Maria Malkova</t>
-  </si>
-  <si>
-    <t>Vladislav Gorbachev</t>
+    <t>HW1</t>
+  </si>
+  <si>
+    <t>HW2</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Malkova Maria</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD49D77-818C-4B62-ABCF-95D7E6A9312D}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +510,7 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +529,29 @@
       <c r="H1" s="2">
         <v>44851</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,14 +576,36 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <f>ROUND(0.2*SUM(D2:H2)/4+0.3*SUM(J2:N2)/4+0.5*P2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -567,44 +622,119 @@
       <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R32" si="0">ROUND(0.2*SUM(D3:H3)/4+0.3*SUM(J3:N3)/4+0.5*P3,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A30" si="0">1+A3</f>
+        <f t="shared" ref="A4:A30" si="1">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="G5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -618,14 +748,36 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -636,14 +788,36 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -651,20 +825,48 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -675,14 +877,36 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -690,62 +914,128 @@
       <c r="G10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
+      <c r="B13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -762,354 +1052,707 @@
       <c r="G13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="F30">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>9</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
